--- a/plan/Gantt.xlsx
+++ b/plan/Gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E3F4B3-13CF-42A7-A6FC-3A90A32CEBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{A90425D9-48F7-46BC-9945-9EBC0EDC5DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9816" yWindow="0" windowWidth="13068" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planeador de Projetos" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,14 @@
     <definedName name="RealParaAlémDe">PeríodoReal*('Planeador de Projetos'!$E1&gt;0)</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Planeador de Projetos'!$3:$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -39,15 +41,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>Selecione um período a realçar à direita.  Segue-se uma legenda que descreve o gráfico.</t>
   </si>
   <si>
     <t>ATIVIDADE</t>
-  </si>
-  <si>
-    <t>Atividade 26</t>
   </si>
   <si>
     <t>INÍCIO DO PLANO</t>
@@ -158,9 +157,6 @@
     </r>
   </si>
   <si>
-    <t>HydraLife</t>
-  </si>
-  <si>
     <t xml:space="preserve">HydraSealTest.cs </t>
   </si>
   <si>
@@ -221,10 +217,13 @@
     <t>SecureString</t>
   </si>
   <si>
-    <t>. Estrutura da Biblioteca HydraLex</t>
-  </si>
-  <si>
     <t xml:space="preserve">HydraConfig.json </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HydraLex</t>
+  </si>
+  <si>
+    <t>Planeador de Forms:(SplashScreen)</t>
   </si>
 </sst>
 </file>
@@ -263,15 +262,24 @@
       <scheme val="major"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="7"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -326,17 +334,10 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
+      <sz val="8"/>
+      <name val="Corbel"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="8">
@@ -472,14 +473,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" applyFill="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -488,40 +489,40 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="6" borderId="1">
+    <xf numFmtId="1" fontId="13" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
@@ -532,25 +533,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="3">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="3">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="7">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="7">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -559,10 +563,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="6" borderId="1" xfId="13">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="6" borderId="1" xfId="13">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
@@ -580,29 +587,38 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
@@ -610,35 +626,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1049,857 +1048,982 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO30"/>
+  <dimension ref="B1:BO54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="51.77734375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" style="2" customWidth="1"/>
     <col min="3" max="6" width="13.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="4" customWidth="1"/>
     <col min="8" max="27" width="3.21875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="14">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
+    </row>
+    <row r="3" spans="2:67" s="11" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+    </row>
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="23"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>4</v>
+      </c>
+      <c r="L4" s="3">
+        <v>5</v>
+      </c>
+      <c r="M4" s="3">
+        <v>6</v>
+      </c>
+      <c r="N4" s="3">
+        <v>7</v>
+      </c>
+      <c r="O4" s="3">
+        <v>8</v>
+      </c>
+      <c r="P4" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>10</v>
+      </c>
+      <c r="R4" s="3">
+        <v>11</v>
+      </c>
+      <c r="S4" s="3">
+        <v>12</v>
+      </c>
+      <c r="T4" s="3">
+        <v>13</v>
+      </c>
+      <c r="U4" s="3">
+        <v>14</v>
+      </c>
+      <c r="V4" s="3">
         <v>15</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+      <c r="W4" s="3">
+        <v>16</v>
+      </c>
+      <c r="X4" s="3">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>21</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>23</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>24</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>25</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>26</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>27</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>28</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>29</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>30</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>31</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>32</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>33</v>
+      </c>
+      <c r="AO4" s="3">
+        <v>34</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>35</v>
+      </c>
+      <c r="AQ4" s="3">
+        <v>36</v>
+      </c>
+      <c r="AR4" s="3">
+        <v>37</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>38</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>39</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>40</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>41</v>
+      </c>
+      <c r="AW4" s="3">
+        <v>42</v>
+      </c>
+      <c r="AX4" s="3">
+        <v>43</v>
+      </c>
+      <c r="AY4" s="3">
+        <v>44</v>
+      </c>
+      <c r="AZ4" s="3">
+        <v>45</v>
+      </c>
+      <c r="BA4" s="3">
+        <v>46</v>
+      </c>
+      <c r="BB4" s="3">
+        <v>47</v>
+      </c>
+      <c r="BC4" s="3">
+        <v>48</v>
+      </c>
+      <c r="BD4" s="3">
+        <v>49</v>
+      </c>
+      <c r="BE4" s="3">
+        <v>50</v>
+      </c>
+      <c r="BF4" s="3">
+        <v>51</v>
+      </c>
+      <c r="BG4" s="3">
+        <v>52</v>
+      </c>
+      <c r="BH4" s="3">
+        <v>53</v>
+      </c>
+      <c r="BI4" s="3">
+        <v>54</v>
+      </c>
+      <c r="BJ4" s="3">
+        <v>55</v>
+      </c>
+      <c r="BK4" s="3">
+        <v>56</v>
+      </c>
+      <c r="BL4" s="3">
+        <v>57</v>
+      </c>
+      <c r="BM4" s="3">
+        <v>58</v>
+      </c>
+      <c r="BN4" s="3">
+        <v>59</v>
+      </c>
+      <c r="BO4" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6">
+        <v>31</v>
+      </c>
+      <c r="E5" s="6">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6">
+        <v>10</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>6</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6">
+        <v>8</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4</v>
+      </c>
+      <c r="F10" s="6">
+        <v>6</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6">
+        <v>3</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>5</v>
+      </c>
+      <c r="F13" s="6">
+        <v>6</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="6">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6">
+        <v>6</v>
+      </c>
+      <c r="F14" s="6">
+        <v>7</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="8">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6">
+        <v>8</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3</v>
+      </c>
+      <c r="E16" s="6">
+        <v>9</v>
+      </c>
+      <c r="F16" s="6">
+        <v>3</v>
+      </c>
+      <c r="G16" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="4" t="s">
+    </row>
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="6">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6">
+        <v>6</v>
+      </c>
+      <c r="E17" s="6">
+        <v>9</v>
+      </c>
+      <c r="F17" s="6">
         <v>7</v>
       </c>
-      <c r="H2" s="12">
+      <c r="G17" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="6">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6">
+        <v>3</v>
+      </c>
+      <c r="E18" s="6">
+        <v>9</v>
+      </c>
+      <c r="F18" s="6">
         <v>1</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="30" t="s">
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="6">
+        <v>9</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4</v>
+      </c>
+      <c r="E19" s="6">
+        <v>8</v>
+      </c>
+      <c r="F19" s="6">
+        <v>5</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="6">
         <v>10</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="30" t="s">
+      <c r="D20" s="6">
+        <v>5</v>
+      </c>
+      <c r="E20" s="6">
+        <v>10</v>
+      </c>
+      <c r="F20" s="6">
+        <v>3</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="6">
         <v>11</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="26" t="s">
+      <c r="D21" s="6">
+        <v>2</v>
+      </c>
+      <c r="E21" s="6">
+        <v>11</v>
+      </c>
+      <c r="F21" s="6">
+        <v>5</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="6">
         <v>12</v>
       </c>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="26" t="s">
+      <c r="D22" s="6">
+        <v>6</v>
+      </c>
+      <c r="E22" s="6">
+        <v>12</v>
+      </c>
+      <c r="F22" s="6">
+        <v>7</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="6">
+        <v>12</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>12</v>
+      </c>
+      <c r="F23" s="6">
+        <v>5</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="6">
         <v>14</v>
       </c>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-    </row>
-    <row r="3" spans="2:67" s="10" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="37" t="s">
+      <c r="D24" s="6">
+        <v>5</v>
+      </c>
+      <c r="E24" s="6">
+        <v>14</v>
+      </c>
+      <c r="F24" s="6">
+        <v>6</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="6">
+        <v>14</v>
+      </c>
+      <c r="D25" s="6">
+        <v>8</v>
+      </c>
+      <c r="E25" s="6">
+        <v>14</v>
+      </c>
+      <c r="F25" s="6">
+        <v>2</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="6">
+        <v>14</v>
+      </c>
+      <c r="D26" s="6">
+        <v>7</v>
+      </c>
+      <c r="E26" s="6">
+        <v>14</v>
+      </c>
+      <c r="F26" s="6">
         <v>3</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="6">
+        <v>15</v>
+      </c>
+      <c r="D27" s="6">
         <v>4</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E27" s="6">
+        <v>15</v>
+      </c>
+      <c r="F27" s="6">
+        <v>8</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="6">
+        <v>15</v>
+      </c>
+      <c r="D28" s="6">
         <v>5</v>
       </c>
-      <c r="F3" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="28" t="s">
+      <c r="E28" s="6">
+        <v>15</v>
+      </c>
+      <c r="F28" s="6">
+        <v>3</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="6">
+        <v>15</v>
+      </c>
+      <c r="D29" s="6">
         <v>8</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-    </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="E29" s="6">
+        <v>15</v>
+      </c>
+      <c r="F29" s="6">
+        <v>5</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="6">
+        <v>16</v>
+      </c>
+      <c r="D30" s="6">
+        <v>28</v>
+      </c>
+      <c r="E30" s="6">
+        <v>16</v>
+      </c>
+      <c r="F30" s="6">
+        <v>30</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1">
         <v>2</v>
       </c>
-      <c r="J4" s="2">
-        <v>3</v>
-      </c>
-      <c r="K4" s="2">
-        <v>4</v>
-      </c>
-      <c r="L4" s="2">
-        <v>5</v>
-      </c>
-      <c r="M4" s="2">
-        <v>6</v>
-      </c>
-      <c r="N4" s="2">
-        <v>7</v>
-      </c>
-      <c r="O4" s="2">
-        <v>8</v>
-      </c>
-      <c r="P4" s="2">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>10</v>
-      </c>
-      <c r="R4" s="2">
-        <v>11</v>
-      </c>
-      <c r="S4" s="2">
-        <v>12</v>
-      </c>
-      <c r="T4" s="2">
-        <v>13</v>
-      </c>
-      <c r="U4" s="2">
+    </row>
+    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="2">
-        <v>15</v>
-      </c>
-      <c r="W4" s="2">
+    </row>
+    <row r="33" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="2">
+    </row>
+    <row r="34" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="Y4" s="2">
+    </row>
+    <row r="36" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="2">
+    </row>
+    <row r="37" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="AA4" s="2">
+    </row>
+    <row r="38" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="2">
+    </row>
+    <row r="39" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="AC4" s="2">
+    </row>
+    <row r="40" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="AD4" s="2">
+    </row>
+    <row r="41" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="AE4" s="2">
+    </row>
+    <row r="43" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AF4" s="2">
+    </row>
+    <row r="44" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AG4" s="2">
+    </row>
+    <row r="45" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="AH4" s="2">
+    </row>
+    <row r="46" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="AI4" s="2">
+    </row>
+    <row r="47" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="AJ4" s="2">
+    </row>
+    <row r="48" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AK4" s="2">
+    </row>
+    <row r="49" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AL4" s="2">
+    </row>
+    <row r="50" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="AM4" s="2">
+    </row>
+    <row r="51" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="AN4" s="2">
+    </row>
+    <row r="52" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="AO4" s="2">
+    </row>
+    <row r="53" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="36" t="s">
         <v>34</v>
-      </c>
-      <c r="AP4" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ4" s="2">
-        <v>36</v>
-      </c>
-      <c r="AR4" s="2">
-        <v>37</v>
-      </c>
-      <c r="AS4" s="2">
-        <v>38</v>
-      </c>
-      <c r="AT4" s="2">
-        <v>39</v>
-      </c>
-      <c r="AU4" s="2">
-        <v>40</v>
-      </c>
-      <c r="AV4" s="2">
-        <v>41</v>
-      </c>
-      <c r="AW4" s="2">
-        <v>42</v>
-      </c>
-      <c r="AX4" s="2">
-        <v>43</v>
-      </c>
-      <c r="AY4" s="2">
-        <v>44</v>
-      </c>
-      <c r="AZ4" s="2">
-        <v>45</v>
-      </c>
-      <c r="BA4" s="2">
-        <v>46</v>
-      </c>
-      <c r="BB4" s="2">
-        <v>47</v>
-      </c>
-      <c r="BC4" s="2">
-        <v>48</v>
-      </c>
-      <c r="BD4" s="2">
-        <v>49</v>
-      </c>
-      <c r="BE4" s="2">
-        <v>50</v>
-      </c>
-      <c r="BF4" s="2">
-        <v>51</v>
-      </c>
-      <c r="BG4" s="2">
-        <v>52</v>
-      </c>
-      <c r="BH4" s="2">
-        <v>53</v>
-      </c>
-      <c r="BI4" s="2">
-        <v>54</v>
-      </c>
-      <c r="BJ4" s="2">
-        <v>55</v>
-      </c>
-      <c r="BK4" s="2">
-        <v>56</v>
-      </c>
-      <c r="BL4" s="2">
-        <v>57</v>
-      </c>
-      <c r="BM4" s="2">
-        <v>58</v>
-      </c>
-      <c r="BN4" s="2">
-        <v>59</v>
-      </c>
-      <c r="BO4" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>6</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>4</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2</v>
-      </c>
-      <c r="F7" s="5">
-        <v>5</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="5">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5">
-        <v>4</v>
-      </c>
-      <c r="F8" s="5">
-        <v>6</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="5">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2</v>
-      </c>
-      <c r="E9" s="5">
-        <v>4</v>
-      </c>
-      <c r="F9" s="5">
-        <v>8</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="5">
-        <v>4</v>
-      </c>
-      <c r="D10" s="5">
-        <v>3</v>
-      </c>
-      <c r="E10" s="5">
-        <v>4</v>
-      </c>
-      <c r="F10" s="5">
-        <v>6</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5">
-        <v>5</v>
-      </c>
-      <c r="D11" s="5">
-        <v>4</v>
-      </c>
-      <c r="E11" s="5">
-        <v>5</v>
-      </c>
-      <c r="F11" s="5">
-        <v>3</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="5">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2</v>
-      </c>
-      <c r="E12" s="5">
-        <v>5</v>
-      </c>
-      <c r="F12" s="5">
-        <v>5</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="5">
-        <v>5</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2</v>
-      </c>
-      <c r="E13" s="5">
-        <v>5</v>
-      </c>
-      <c r="F13" s="5">
-        <v>6</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="5">
-        <v>6</v>
-      </c>
-      <c r="D14" s="5">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5">
-        <v>6</v>
-      </c>
-      <c r="F14" s="5">
-        <v>7</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="7">
-        <v>6</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5">
-        <v>5</v>
-      </c>
-      <c r="F15" s="5">
-        <v>8</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="5">
-        <v>9</v>
-      </c>
-      <c r="D16" s="5">
-        <v>3</v>
-      </c>
-      <c r="E16" s="5">
-        <v>9</v>
-      </c>
-      <c r="F16" s="5">
-        <v>3</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="5">
-        <v>9</v>
-      </c>
-      <c r="D17" s="5">
-        <v>6</v>
-      </c>
-      <c r="E17" s="5">
-        <v>9</v>
-      </c>
-      <c r="F17" s="5">
-        <v>7</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="5">
-        <v>9</v>
-      </c>
-      <c r="D18" s="5">
-        <v>3</v>
-      </c>
-      <c r="E18" s="5">
-        <v>9</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="5">
-        <v>9</v>
-      </c>
-      <c r="D19" s="5">
-        <v>4</v>
-      </c>
-      <c r="E19" s="5">
-        <v>8</v>
-      </c>
-      <c r="F19" s="5">
-        <v>5</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="5">
-        <v>10</v>
-      </c>
-      <c r="D20" s="5">
-        <v>5</v>
-      </c>
-      <c r="E20" s="5">
-        <v>10</v>
-      </c>
-      <c r="F20" s="5">
-        <v>3</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="5">
-        <v>11</v>
-      </c>
-      <c r="D21" s="5">
-        <v>2</v>
-      </c>
-      <c r="E21" s="5">
-        <v>11</v>
-      </c>
-      <c r="F21" s="5">
-        <v>5</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="5">
-        <v>12</v>
-      </c>
-      <c r="D22" s="5">
-        <v>6</v>
-      </c>
-      <c r="E22" s="5">
-        <v>12</v>
-      </c>
-      <c r="F22" s="5">
-        <v>7</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="5">
-        <v>12</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5">
-        <v>12</v>
-      </c>
-      <c r="F23" s="5">
-        <v>5</v>
-      </c>
-      <c r="G23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="5">
-        <v>14</v>
-      </c>
-      <c r="D24" s="5">
-        <v>5</v>
-      </c>
-      <c r="E24" s="5">
-        <v>14</v>
-      </c>
-      <c r="F24" s="5">
-        <v>6</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="5">
-        <v>14</v>
-      </c>
-      <c r="D25" s="5">
-        <v>8</v>
-      </c>
-      <c r="E25" s="5">
-        <v>14</v>
-      </c>
-      <c r="F25" s="5">
-        <v>2</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="5">
-        <v>14</v>
-      </c>
-      <c r="D26" s="5">
-        <v>7</v>
-      </c>
-      <c r="E26" s="5">
-        <v>14</v>
-      </c>
-      <c r="F26" s="5">
-        <v>3</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="5">
-        <v>15</v>
-      </c>
-      <c r="D27" s="5">
-        <v>4</v>
-      </c>
-      <c r="E27" s="5">
-        <v>15</v>
-      </c>
-      <c r="F27" s="5">
-        <v>8</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="5">
-        <v>15</v>
-      </c>
-      <c r="D28" s="5">
-        <v>5</v>
-      </c>
-      <c r="E28" s="5">
-        <v>15</v>
-      </c>
-      <c r="F28" s="5">
-        <v>3</v>
-      </c>
-      <c r="G28" s="6">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="5">
-        <v>15</v>
-      </c>
-      <c r="D29" s="5">
-        <v>8</v>
-      </c>
-      <c r="E29" s="5">
-        <v>15</v>
-      </c>
-      <c r="F29" s="5">
-        <v>5</v>
-      </c>
-      <c r="G29" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="5">
-        <v>16</v>
-      </c>
-      <c r="D30" s="5">
-        <v>28</v>
-      </c>
-      <c r="E30" s="5">
-        <v>16</v>
-      </c>
-      <c r="F30" s="5">
-        <v>30</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AJ2:AS2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="AB2:AH2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
-  <conditionalFormatting sqref="B31:BO31">
+  <phoneticPr fontId="14" type="noConversion"/>
+  <conditionalFormatting sqref="C31:BO31">
     <cfRule type="expression" dxfId="9" priority="2">
       <formula>TRUE</formula>
     </cfRule>
